--- a/Excel/handover_data.xlsx
+++ b/Excel/handover_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b12b08b9581f4a/Desktop/Versions/Version 3 (development)/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_5B9180F4F613C8264F2C4C8DCD401D7574AEC4C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2497B50D-09CB-4A11-807E-E3FA6862A505}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>FormID</t>
   </si>
@@ -85,170 +79,50 @@
     <t>Status</t>
   </si>
   <si>
-    <t>432ac1bd</t>
-  </si>
-  <si>
-    <t>23db4ac1</t>
-  </si>
-  <si>
-    <t>1ba3c4d2</t>
-  </si>
-  <si>
-    <t>d2c3ab14</t>
-  </si>
-  <si>
-    <t>b3ad4c21</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>aaaaaaasdfds</t>
-  </si>
-  <si>
-    <t>12345678hhhh</t>
-  </si>
-  <si>
-    <t>a4563dgfhk44</t>
+    <t>3cba214d</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Drone Equipment</t>
   </si>
   <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>DGPS Equipment</t>
-  </si>
-  <si>
-    <t>Name5</t>
-  </si>
-  <si>
-    <t>Name6</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
     <t>Name7</t>
   </si>
   <si>
-    <t>Make5</t>
-  </si>
-  <si>
-    <t>Make6</t>
-  </si>
-  <si>
-    <t>Make1</t>
-  </si>
-  <si>
-    <t>Make2</t>
-  </si>
-  <si>
     <t>Make7</t>
   </si>
   <si>
-    <t>Model5</t>
-  </si>
-  <si>
-    <t>Model6</t>
-  </si>
-  <si>
-    <t>Model1</t>
-  </si>
-  <si>
-    <t>Model2</t>
-  </si>
-  <si>
     <t>Model7</t>
   </si>
   <si>
-    <t>Serial5</t>
-  </si>
-  <si>
-    <t>Serial6</t>
-  </si>
-  <si>
-    <t>Serial1</t>
-  </si>
-  <si>
-    <t>Serial2</t>
-  </si>
-  <si>
     <t>Serial7</t>
   </si>
   <si>
-    <t>SOI TRIPURA</t>
-  </si>
-  <si>
     <t>SOI ASSAM</t>
   </si>
   <si>
-    <t>Fahad</t>
-  </si>
-  <si>
     <t>Umar</t>
   </si>
   <si>
     <t>Hammad</t>
   </si>
   <si>
-    <t>Abbas</t>
-  </si>
-  <si>
-    <t>Zafar</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
     <t>Not OK</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Not Ok</t>
-  </si>
-  <si>
-    <t>SDFDS</t>
-  </si>
-  <si>
-    <t>2024-06-01 13:22:12</t>
-  </si>
-  <si>
-    <t>2024-06-01 13:29:52</t>
-  </si>
-  <si>
-    <t>2024-06-01 13:34:54</t>
-  </si>
-  <si>
-    <t>2024-06-03 10:58:38</t>
-  </si>
-  <si>
-    <t>2024-06-03 11:04:19</t>
-  </si>
-  <si>
-    <t>Approved</t>
+    <t>2024-06-07 10:43:59</t>
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,14 +185,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -365,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,27 +263,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,24 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,16 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,260 +544,66 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>21</v>
       </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" t="s">
-        <v>69</v>
-      </c>
-      <c r="U5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/handover_data.xlsx
+++ b/Excel/handover_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>FormID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>SenderRemarks</t>
   </si>
   <si>
-    <t>Reached</t>
-  </si>
-  <si>
     <t>ReceiverCondition</t>
   </si>
   <si>
@@ -79,43 +76,52 @@
     <t>Status</t>
   </si>
   <si>
-    <t>3cba214d</t>
+    <t>2ba1c34d</t>
+  </si>
+  <si>
+    <t>Drone Equipment</t>
+  </si>
+  <si>
+    <t>Name7</t>
+  </si>
+  <si>
+    <t>Make7</t>
+  </si>
+  <si>
+    <t>Model7</t>
+  </si>
+  <si>
+    <t>Serial7</t>
+  </si>
+  <si>
+    <t>SOI ASSAM</t>
+  </si>
+  <si>
+    <t>SOI TRIPURA</t>
+  </si>
+  <si>
+    <t>Umar</t>
+  </si>
+  <si>
+    <t>Not OK</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Drone Equipment</t>
-  </si>
-  <si>
-    <t>Name7</t>
-  </si>
-  <si>
-    <t>Make7</t>
-  </si>
-  <si>
-    <t>Model7</t>
-  </si>
-  <si>
-    <t>Serial7</t>
-  </si>
-  <si>
-    <t>SOI ASSAM</t>
-  </si>
-  <si>
-    <t>Umar</t>
-  </si>
-  <si>
-    <t>Hammad</t>
-  </si>
-  <si>
-    <t>Not OK</t>
-  </si>
-  <si>
-    <t>2024-06-07 10:43:59</t>
-  </si>
-  <si>
-    <t>Pending</t>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>2024-06-07 12:54:38</t>
+  </si>
+  <si>
+    <t>2024-06-07 13:08:01</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -473,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,70 +546,67 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>111111111111</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/handover_data.xlsx
+++ b/Excel/handover_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>FormID</t>
   </si>
@@ -79,37 +79,94 @@
     <t>2ba1c34d</t>
   </si>
   <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sdsdsa</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ca1bd423</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>123412341234</t>
+  </si>
+  <si>
     <t>Drone Equipment</t>
   </si>
   <si>
+    <t>Electronics</t>
+  </si>
+  <si>
     <t>Name7</t>
   </si>
   <si>
+    <t>Name1</t>
+  </si>
+  <si>
     <t>Make7</t>
   </si>
   <si>
+    <t>Make1</t>
+  </si>
+  <si>
     <t>Model7</t>
   </si>
   <si>
+    <t>Model1</t>
+  </si>
+  <si>
     <t>Serial7</t>
   </si>
   <si>
+    <t>Serial1</t>
+  </si>
+  <si>
     <t>SOI ASSAM</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
     <t>SOI TRIPURA</t>
   </si>
   <si>
     <t>Umar</t>
   </si>
   <si>
+    <t>sdasd</t>
+  </si>
+  <si>
+    <t>Hammad</t>
+  </si>
+  <si>
+    <t>Fahad</t>
+  </si>
+  <si>
     <t>Not OK</t>
   </si>
   <si>
+    <t>Good</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Good</t>
+    <t>badhiya</t>
+  </si>
+  <si>
+    <t>Not Ok</t>
   </si>
   <si>
     <t>YES</t>
@@ -118,10 +175,16 @@
     <t>2024-06-07 12:54:38</t>
   </si>
   <si>
-    <t>2024-06-07 13:08:01</t>
-  </si>
-  <si>
-    <t>Rejected</t>
+    <t>2024-06-07 18:48:17</t>
+  </si>
+  <si>
+    <t>2024-06-07 19:25:29</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -479,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,58 +618,335 @@
         <v>111111111111</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3">
+        <v>111111111111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4">
+        <v>111111111111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B6">
+        <v>111111111111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="F7" t="s">
         <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/handover_data.xlsx
+++ b/Excel/handover_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
   <si>
     <t>FormID</t>
   </si>
@@ -94,12 +94,24 @@
     <t>ca1bd423</t>
   </si>
   <si>
+    <t>142d3abc</t>
+  </si>
+  <si>
+    <t>db42ac31</t>
+  </si>
+  <si>
     <t>aaaaaaaaaaaa</t>
   </si>
   <si>
     <t>123412341234</t>
   </si>
   <si>
+    <t>123456789123</t>
+  </si>
+  <si>
+    <t>aw12sd34fg56</t>
+  </si>
+  <si>
     <t>Drone Equipment</t>
   </si>
   <si>
@@ -112,24 +124,60 @@
     <t>Name1</t>
   </si>
   <si>
+    <t>Name5</t>
+  </si>
+  <si>
+    <t>Name8</t>
+  </si>
+  <si>
+    <t>Name9</t>
+  </si>
+  <si>
     <t>Make7</t>
   </si>
   <si>
     <t>Make1</t>
   </si>
   <si>
+    <t>Make5</t>
+  </si>
+  <si>
+    <t>Make8</t>
+  </si>
+  <si>
+    <t>Make9</t>
+  </si>
+  <si>
     <t>Model7</t>
   </si>
   <si>
     <t>Model1</t>
   </si>
   <si>
+    <t>Model5</t>
+  </si>
+  <si>
+    <t>Model8</t>
+  </si>
+  <si>
+    <t>Model9</t>
+  </si>
+  <si>
     <t>Serial7</t>
   </si>
   <si>
     <t>Serial1</t>
   </si>
   <si>
+    <t>Serial5</t>
+  </si>
+  <si>
+    <t>Serial8</t>
+  </si>
+  <si>
+    <t>Serial9</t>
+  </si>
+  <si>
     <t>SOI ASSAM</t>
   </si>
   <si>
@@ -169,6 +217,9 @@
     <t>Not Ok</t>
   </si>
   <si>
+    <t>Damaged</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
@@ -178,7 +229,19 @@
     <t>2024-06-07 18:48:17</t>
   </si>
   <si>
+    <t>2024-06-10 12:35:38</t>
+  </si>
+  <si>
+    <t>2024-06-10 12:47:48</t>
+  </si>
+  <si>
     <t>2024-06-07 19:25:29</t>
+  </si>
+  <si>
+    <t>2024-06-10 12:37:54</t>
+  </si>
+  <si>
+    <t>2024-06-10 12:49:17</t>
   </si>
   <si>
     <t>Pending</t>
@@ -542,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,52 +681,52 @@
         <v>111111111111</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -674,52 +737,52 @@
         <v>111111111111</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -730,49 +793,49 @@
         <v>111111111111</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -780,58 +843,58 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -842,52 +905,52 @@
         <v>111111111111</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -895,43 +958,43 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -940,13 +1003,255 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="S7" t="s">
+      <c r="H11" t="s">
         <v>54</v>
       </c>
-      <c r="T7" t="s">
-        <v>56</v>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/handover_data.xlsx
+++ b/Excel/handover_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
   <si>
     <t>FormID</t>
   </si>
@@ -100,6 +100,12 @@
     <t>db42ac31</t>
   </si>
   <si>
+    <t>324da1cb</t>
+  </si>
+  <si>
+    <t>d32a1cb4</t>
+  </si>
+  <si>
     <t>aaaaaaaaaaaa</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>Electronics</t>
   </si>
   <si>
+    <t>DGPS Equipment</t>
+  </si>
+  <si>
     <t>Name7</t>
   </si>
   <si>
@@ -133,6 +142,15 @@
     <t>Name9</t>
   </si>
   <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
     <t>Make7</t>
   </si>
   <si>
@@ -148,6 +166,15 @@
     <t>Make9</t>
   </si>
   <si>
+    <t>Make2</t>
+  </si>
+  <si>
+    <t>Make3</t>
+  </si>
+  <si>
+    <t>Make4</t>
+  </si>
+  <si>
     <t>Model7</t>
   </si>
   <si>
@@ -163,6 +190,15 @@
     <t>Model9</t>
   </si>
   <si>
+    <t>Model2</t>
+  </si>
+  <si>
+    <t>Model3</t>
+  </si>
+  <si>
+    <t>Model4</t>
+  </si>
+  <si>
     <t>Serial7</t>
   </si>
   <si>
@@ -178,6 +214,15 @@
     <t>Serial9</t>
   </si>
   <si>
+    <t>Serial2</t>
+  </si>
+  <si>
+    <t>Serial3</t>
+  </si>
+  <si>
+    <t>Serial4</t>
+  </si>
+  <si>
     <t>SOI ASSAM</t>
   </si>
   <si>
@@ -199,6 +244,9 @@
     <t>Hammad</t>
   </si>
   <si>
+    <t>Zafar</t>
+  </si>
+  <si>
     <t>Fahad</t>
   </si>
   <si>
@@ -233,6 +281,12 @@
   </si>
   <si>
     <t>2024-06-10 12:47:48</t>
+  </si>
+  <si>
+    <t>2024-06-10 16:00:59</t>
+  </si>
+  <si>
+    <t>2024-06-10 16:02:45</t>
   </si>
   <si>
     <t>2024-06-07 19:25:29</t>
@@ -605,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,52 +735,52 @@
         <v>111111111111</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -737,52 +791,52 @@
         <v>111111111111</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -793,49 +847,49 @@
         <v>111111111111</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -843,58 +897,58 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -905,52 +959,52 @@
         <v>111111111111</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -958,43 +1012,43 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1003,13 +1057,13 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1017,43 +1071,43 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1062,13 +1116,13 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="S8" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1076,46 +1130,46 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1124,13 +1178,13 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1138,58 +1192,58 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1197,61 +1251,247 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
         <v>72</v>
       </c>
-      <c r="S11" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
         <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/handover_data.xlsx
+++ b/Excel/handover_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b12b08b9581f4a/Desktop/INS/IMS FINAL/Inventory-Management-System/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2A0521E7F613C8264F2C4CE5C52EAD346DDE21B4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46595B68-5824-49BF-A3D6-F6743C06F29B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>FormID</t>
   </si>
@@ -79,6 +85,9 @@
     <t>a1d4b2c3</t>
   </si>
   <si>
+    <t>111111111111</t>
+  </si>
+  <si>
     <t>DGPS Equipment</t>
   </si>
   <si>
@@ -157,20 +166,20 @@
     <t>ap</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>2024-06-11 16:21:13</t>
   </si>
   <si>
-    <t>2024-06-11 16:25:57</t>
-  </si>
-  <si>
-    <t>Rejected</t>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +242,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -279,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +328,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +380,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +573,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="P2:Q5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,234 +644,239 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>987654321123</v>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
-        <v>987654321123</v>
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
         <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>987654321123</v>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>987654321123</v>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
